--- a/engine/files/input.xlsx
+++ b/engine/files/input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
   <si>
     <t xml:space="preserve">Company_ID</t>
   </si>
@@ -149,6 +149,231 @@
   </si>
   <si>
     <t xml:space="preserve">MEC JATI CONSORTIUM SDN. BHD.( 479906-A) is a Malaysian Bumiputera status company G7 that is incorporated on 26th March 1999 with an objective of establishing leading engineering services and products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBT ENGINEERING PTE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.teeintl.com/business/engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering services undertaken by PBT include Sub Structure, Super Structure, Civil, Architecture &amp; Interior Decoration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOHETO (SINGAPORE) PTE. LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://soheto.com.kh/about-us/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soheto Services is the Authorized Agent and Service Center for Sony Professional Products as well as Fujifilm Digital Cameras in Cambodia. We have been in operation in Cambodia since 1996, and we have a specialized sales and service team to cater to all your needs for broadcasting as well as photography needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTAMAJU SDN BHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.emis.com/php/company-profile/MY/Contamaju_Sdn_Bhd_en_4197340.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contamaju Sdn Bhd is an enterprise in Malaysia, with the main office in Kuala Lumpur. It operates in the Construction industry. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP ARCHITECTS PTE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dpa.com.sg/about/our-experience/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since its inception in 1967, DP has designed many of the country’s most important public projects and notable landmarks. Each of these has played a critical role in shaping Singapore’s civic urban landscape and downtown core, by linking spaces of the city in the formation of a continuous urban fabric. These sites serve as social and cultural anchors for Singapore and as public nodes of human density that have contributed greatly to the city’s success. DP has also been involved with urban projects of immense scale and increasing diversity of function; some of the firm’s works are the largest of their type in the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP ECOMMERCE (MALAYSIA) SDN. BHD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.specommerce.com/about-us/#thespecommercestory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP eCommerce is a full-service eCommerce enabler that provides global brands with Asia Pacific’s first end-to-end managed eCommerce solution, including webstore design and implementation, marketplace management, cross-border commerce, omnichannel order management, global delivery &amp; fulfillment, digital marketing, customer care and Merchant of Record services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREST BUILDER SDN BHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.crestbuilder.com.my/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBHB Group has a proven and established track record in the sector - especially in the commercial, residential and institutional building construction. The Group has moved along the supply chain and diversified beyond purely construction into other construction-related activities, such as property development, Mechanical &amp; Electrical Engineering ("M&amp;E") services and project management - and upon completion of our RM300 million maiden development namely 3 Two Square, the Group has also diversified into property management as well as car park management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVP ELECTRONICS LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONG KONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.avp-electronics.com/aboutus.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVP Electronics Ltd serves as a supply channel for a wide range of products from Samsung Electronics in the China region which included Memory , CMOS Sensors, Mobile Display Drivers , AMOLED, 3G/4G Modem and Mobile Application Processors/3G/4G. Its comprehensive sales and distribution network provides an important link in the semiconductor and electronics components supply chain across Hong Kong and China.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOPEE SINGAPORE PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://careers.shopee.sg/about/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launched in 2015, it is a platform tailored for the region, providing customers with an easy, secure and fast online shopping experience through strong payment and fulfillment support.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXCELPOINT SYSTEMS (PTE) LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.excelpoint.com/about-us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelpoint Technology Ltd. (the “Company”) and its subsidiaries (“Excelpoint” or the “Group”) are one of the leading regional business-to-business (“B2B”) platforms providing quality electronic components, engineering design services and supply chain management to original equipment manufacturers (“OEMs”), original design manufacturers (“ODMs”) and electronics manufacturing services (“EMS”) in the Asia Pacific region. Excelpoint Technology Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optus Finance Pty Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUSTRALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.optus.com.au/about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optus is an Australian leader in integrated telecommunications, delivering cutting-edge communications, information technology and entertainment services. In 2001 Singtel became the parent company of Optus, paving the way to become a strong and strategic telecommunications player within the Asia-Pacific region. With more than 130 years of operating experience the Singtel Group is Asia's leading communications group providing a wide spectrum of multimedia and infocomms technology (ICT) solutions, including voice, data and video services over fixed and wireless platforms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOSPITALITY AND RETAIL SYSTEMS PTE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hrsinternational.com/en/company/about-hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRS is Oracle’s largest hospitality partner worldwide, providing coverage in over 77 countries to more than 6000 customers. Recognized as an official Oracle Hospitality Partner, HRS offers a wide range of innovative solutions to its customers, these include: Property Management, POS, Spa &amp; Guest Activities, Business Analytics, Payment Gateway, Mobile Applications, Channel Manager, Online Distribution Services, Finance and HR Systems, Passport Scanning &amp; Recognition, plus much more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPZTP FAMILY PTE. LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sgpgrid.com/company-details/tpztp-family-pte-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPZTP FAMILY is an ACRA-registered entity that has been operating for 14 years 7 months in Singapore since its incorporation y in 2006. Officially, TPZTP FAMILY PTE. LTD. is registered as Exempt Private Limited Company with its address in District 15 (Katong, Joo Chiat, Amber Road), primarily operates in the sector of "WHOLESALE OF HOUSEHOLD ELECTRICAL APPLIANCES AND EQUIPMENT (INCLUDING HOUSEHOLD AIR-CONDITIONERS)", SSIC code - 46435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAIER ELECTRIC(THAILAND) PUBLIC CO., LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAILAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.haier.com/th/about-haier/haier-th/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haier brand Founded in 2527 as a brand of home appliances, Haier Group, Haier was converted into the era of the Internet of Things has been introduced to the model of the modified Smart (intelligent. customization model) according to the brand guidelines laid out to be “The forerunner of the Internet of Things”, Haier provides consumers with a wide range of smart home solutions. And different situations, meet the needs of customers. Who want to select high quality products Modern Work smart And most importantly, it is suitable for your own lifestyle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABCON CONTRACTOR PTE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://labcon.com.sg/history.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Established in 1989 as a sole proprietorship, the main activities of Labcon General Contractor (LGC) had been construction works for the commercial, industrial and residential buildings, as well as subcontracting similar works from other main contractors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYARIKAT MUHIBAH PERNIAGAAN DAN PEMBINAAN SDN. BHD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://smpp.com.my/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">website down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINGAPORE TELECOM MOBILE PTE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sgpgrid.com/company-details/singapore-telecom-mobile-pte-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Singtel Group is Asia's leading communications group. We provide a diverse range of services including fixed, mobile, data, internet, TV, infocomms technology (ICT)  and digital solutions. Headquartered in Singapore, Singtel has 140 years of operating experience and played a pivotal role in the country’s development as a major communications hub.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXCELSIOR ENGINEERING PTE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sgpgrid.com/company-details/excelsior-engineering-pte-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXCELSIOR ENGINEERING is an ACRA-registered entity that has been operating for 36 years 2 months in Singapore since its incorporation y in 1985. Officially, EXCELSIOR ENGINEERING PTE LTD is registered as Exempt Private Limited Company with its address in District 22 (Jurong), primarily operates in the sector of "GENERAL BUILDING ENGINEERING DESIGN AND CONSULTANCY SERVICES", SSIC code - 71121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIVIC ENGINEERING LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bloomberg.com/profile/company/1303474D:HK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univic Engineering Limited was founded in 1980. The company's line of business includes providing special trade contracting services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KETECA SINGAPORE PTE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.keteca.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Established in 1990, KETECA grew rapidly to become a trusted world-class developer, manufacturer and distributor of equipment and consumables for the semiconductor industry. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANCO ENGINEERING CONTRACTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.lanco.sg/about_us.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanco Construction &amp; Engineering Pte Ltd (“Lanco”) was formed in 1994 specializing in engineering and machining works, with an expansion of scope to incorporate building and construction by tapping on its expertise as a Structural Steelwork builder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIEN NAN INDUSTRIAL COMPANY SDN. BHD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ctoscredit.com.my/business/KIEN-NAN-INDUSTRIAL-COMPANY-SDN-BHD-0034761A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUFACTURING AND SALE OF BRICKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLDEN SANDS CONSTRUCTION &amp; ENGINEERING PTE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.conbiz.sg/zh/author/jinsha/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our team member engaged in a wide range of Building constructions, Residential, Drainages, Reinforced Concrete Structural works, infrastructure and services involving private and public sector. Our capabilities include all aspects of General Contract works and Construction management. In the performance of contracts, Golden Sands provides a competent and qualified personal equipped and experienced in every stage of constructions work, design and technical coordination matter from inception until completion of the project.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S &amp; F CONSTRUCTION SDN. BHD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.snfsb.com.my/AboutUs.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We specialized in a wide range of geotechnical and foundations engineering, and has increasingly committed to the field of environmental, building &amp; infrastructure works and waste water treatment plant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG-BINTAI KINDENKO JOINT VENTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sgpgrid.com/company-details/samsung-bintai-kindenko-joint-venture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG-BINTAI KINDENKO JOINT VENTURE is an ACRA-registered entity that has been operating for 9 years in Singapore since its incorporation y in 2012. Officially, SAMSUNG-BINTAI KINDENKO JOINT VENTURE is registered as Partnership with its address in District 1 (Raffles Place, Cecil, Marina, People's Park), primarily operates in the sector of "GENERAL CONTRACTORS (BUILDING CONSTRUCTION INCLUDING MAJOR UPGRADING WORKS)", SSIC code - 41001</t>
   </si>
 </sst>
 </file>
@@ -422,9 +647,9 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -442,7 +667,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="51.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,197 +912,510 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3.27816779547474E+018</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>6.03268883806275E+018</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1.81403786155095E+018</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4.25627407221364E+018</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>1.04016060959227E+018</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3.68043567163619E+018</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>5.05097425485736E+018</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>8.23359535058028E+018</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>8.27153465942237E+018</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>6.38363592250869E+017</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>5.3412296872588E+018</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>3.84839429703558E+018</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>7.3615716243642E+018</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>82</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>7.47958809042447E+018</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1.34213749468864E+018</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3.63776874635056E+018</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>7.49894133183995E+018</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>8.89762246980097E+018</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>7.95360773427427E+018</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>8.61201639819347E+018</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>8.15515994708659E+018</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>8.45542840311669E+018</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>2.44278684514614E+018</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>6.30293394675956E+018</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="1"/>
+      <c r="I35" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="9"/>
@@ -6228,6 +6766,30 @@
     <hyperlink ref="I9" r:id="rId8" display="https://www.ctoscredit.com.my/business/HARUM-MAJUINDAH-SDN-BHD-0783390X"/>
     <hyperlink ref="I10" r:id="rId9" display="https://www.timesbusinessdirectory.com/companies/singapore-radio-industry-pte-ltd"/>
     <hyperlink ref="I11" r:id="rId10" display="http://mecjati.com/about-us/"/>
+    <hyperlink ref="I12" r:id="rId11" display="https://www.teeintl.com/business/engineering"/>
+    <hyperlink ref="I13" r:id="rId12" display="http://soheto.com.kh/about-us/"/>
+    <hyperlink ref="I14" r:id="rId13" display="https://www.emis.com/php/company-profile/MY/Contamaju_Sdn_Bhd_en_4197340.html"/>
+    <hyperlink ref="I15" r:id="rId14" display="https://www.dpa.com.sg/about/our-experience/"/>
+    <hyperlink ref="I16" r:id="rId15" location="thespecommercestory" display="https://www.specommerce.com/about-us/#thespecommercestory"/>
+    <hyperlink ref="I17" r:id="rId16" display="http://www.crestbuilder.com.my/"/>
+    <hyperlink ref="I18" r:id="rId17" display="http://www.avp-electronics.com/aboutus.php"/>
+    <hyperlink ref="I19" r:id="rId18" display="https://careers.shopee.sg/about/"/>
+    <hyperlink ref="I20" r:id="rId19" display="https://www.excelpoint.com/about-us"/>
+    <hyperlink ref="I21" r:id="rId20" display="https://www.optus.com.au/about"/>
+    <hyperlink ref="I22" r:id="rId21" display="https://www.hrsinternational.com/en/company/about-hrs"/>
+    <hyperlink ref="I23" r:id="rId22" display="https://sgpgrid.com/company-details/tpztp-family-pte-ltd"/>
+    <hyperlink ref="I24" r:id="rId23" display="https://www.haier.com/th/about-haier/haier-th/"/>
+    <hyperlink ref="I25" r:id="rId24" display="http://labcon.com.sg/history.html"/>
+    <hyperlink ref="I26" r:id="rId25" display="https://smpp.com.my/"/>
+    <hyperlink ref="I27" r:id="rId26" display="https://sgpgrid.com/company-details/singapore-telecom-mobile-pte-ltd"/>
+    <hyperlink ref="I28" r:id="rId27" display="https://sgpgrid.com/company-details/excelsior-engineering-pte-ltd"/>
+    <hyperlink ref="I29" r:id="rId28" display="https://www.bloomberg.com/profile/company/1303474D:HK"/>
+    <hyperlink ref="I30" r:id="rId29" display="https://www.keteca.com/"/>
+    <hyperlink ref="I31" r:id="rId30" display="http://www.lanco.sg/about_us.html"/>
+    <hyperlink ref="I32" r:id="rId31" display="https://www.ctoscredit.com.my/business/KIEN-NAN-INDUSTRIAL-COMPANY-SDN-BHD-0034761A"/>
+    <hyperlink ref="I33" r:id="rId32" display="http://www.conbiz.sg/zh/author/jinsha/"/>
+    <hyperlink ref="I34" r:id="rId33" display="http://www.snfsb.com.my/AboutUs.htm"/>
+    <hyperlink ref="I35" r:id="rId34" display="https://sgpgrid.com/company-details/samsung-bintai-kindenko-joint-venture"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
